--- a/budget.xlsx
+++ b/budget.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BUDGETS WEDDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2020 FILES\PERSONAL\KASALO\BUDGETS WEDDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14775" windowHeight="7395" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="ABAY" sheetId="1" r:id="rId1"/>
     <sheet name="INV-SOV" sheetId="2" r:id="rId2"/>
+    <sheet name="mga bibilin pa" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>Arvic</t>
   </si>
@@ -154,16 +155,56 @@
   </si>
   <si>
     <t>tira pa</t>
+  </si>
+  <si>
+    <t>cutter/white paper</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>hairdress</t>
+  </si>
+  <si>
+    <t>invitation/souvinier</t>
+  </si>
+  <si>
+    <t>mama</t>
+  </si>
+  <si>
+    <t>natitira</t>
+  </si>
+  <si>
+    <t>print/pamasahe</t>
+  </si>
+  <si>
+    <t>bible</t>
+  </si>
+  <si>
+    <t>candle</t>
+  </si>
+  <si>
+    <t>matches</t>
+  </si>
+  <si>
+    <t>wedding shoes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -222,17 +263,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -516,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,17 +573,17 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="N2" t="s">
@@ -546,316 +591,330 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <f>SUM(C7:C14)</f>
         <v>6300</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="G5" s="1">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="G5" s="7">
         <f>SUM(H7:H15)</f>
         <v>7200</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="M5" s="6" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="M5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="P5" s="6" t="s">
+      <c r="N5" s="8"/>
+      <c r="P5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="6"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>1100</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="2">
         <v>1200</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>700</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>700</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>800</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="M7" s="3" t="s">
+      <c r="I7" s="2"/>
+      <c r="M7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="2">
         <v>38</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="2">
         <v>2250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>1400</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>1400</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>800</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="M8" s="3" t="s">
+      <c r="I8" s="2"/>
+      <c r="M8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <v>480</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="2">
         <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>700</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>700</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>800</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="M9" s="3" t="s">
+      <c r="I9" s="2"/>
+      <c r="M9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="2">
         <v>400</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="P9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1320</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>700</v>
+      </c>
+      <c r="D10" s="2">
+        <v>700</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2">
+        <v>800</v>
+      </c>
+      <c r="I10" s="2">
+        <v>800</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="2">
+        <v>400</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
         <v>700</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="F10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="D11" s="2"/>
+      <c r="F11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I11" s="2">
+        <v>500</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>700</v>
+      </c>
+      <c r="D12" s="2">
+        <v>500</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="2">
         <v>800</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="3">
-        <v>400</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="I12" s="2">
+        <v>800</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
         <v>700</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="F11" s="5" t="s">
+      <c r="D13" s="2"/>
+      <c r="F13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="2">
         <v>800</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="I13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
         <v>700</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="F12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="D14" s="2"/>
+      <c r="F14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="2">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I14" s="2">
+        <v>600</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="2">
         <v>800</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3">
-        <v>700</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="F13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="I15" s="2">
         <v>800</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3">
-        <v>700</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="F14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="3">
-        <v>800</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="3">
-        <v>800</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -886,7 +945,7 @@
       </c>
       <c r="Q17">
         <f>SUM(Q6:Q15)</f>
-        <v>3750</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
@@ -895,7 +954,7 @@
       </c>
       <c r="C18">
         <f>SUMIFS(D7:D14, A7:A14, "bayad na")</f>
-        <v>2800</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
@@ -904,14 +963,14 @@
       </c>
       <c r="C19">
         <f>SUMIFS(C7:C14, A7:A14, "di pa bayad")</f>
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
       </c>
       <c r="H19">
         <f>SUMIFS(I7:I15, F7:F15, "bayad na")</f>
-        <v>1600</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -920,7 +979,57 @@
       </c>
       <c r="H20">
         <f>SUMIFS(H7:H15, F7:F15, "di pa bayad")</f>
-        <v>5600</v>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <f>SUM(H20,C19)</f>
+        <v>5300</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1000</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="6">
+        <f>5000 - 'INV-SOV'!G8</f>
+        <v>3943</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="6">
+        <v>1000</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28">
+        <f>H25-SUM(L25:L27)</f>
+        <v>-643</v>
       </c>
     </row>
   </sheetData>
@@ -931,20 +1040,21 @@
     <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:G10"/>
+  <dimension ref="B6:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -980,8 +1090,8 @@
         <v>21</v>
       </c>
       <c r="G8">
-        <f>SUM(C6:C10)</f>
-        <v>790</v>
+        <f>SUM(C1:C27)</f>
+        <v>1057</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -996,7 +1106,7 @@
       </c>
       <c r="G9">
         <f>G6-G8</f>
-        <v>4210</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -1005,6 +1115,60 @@
       </c>
       <c r="C10">
         <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
